--- a/NNLal/NNLal BP.xlsx
+++ b/NNLal/NNLal BP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmrab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E73488-0DCB-400E-B76D-9CD1E7444AA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733BEF39-B09C-4BF8-999D-CBA617D6A24F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE4E0BE5-8332-49E3-8837-C67EE5800AAA}"/>
   </bookViews>
@@ -68,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,17 +91,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,73 +253,73 @@
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>44229.829861111109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44229.304166666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44228.843055555553</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>44228.543749999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>44228.495138888888</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>44228.300694444442</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>44226.551388888889</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>44223.361111111109</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>44222.333333333336</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>44221.95208333333</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>44221.451388888891</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>44221.320833333331</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>44220.554861111108</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>44220.340277777781</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>44219.333333333336</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>44215.814583333333</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>44215.324999999997</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>44214.975694444445</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>44196.413888888892</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>44192.986111111109</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>44192.319444444445</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>44191.451388888891</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>44191.3125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44190.970138888886</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44190.133333333331</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44189.395833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,70 +334,70 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>138</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>142</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,73 +454,73 @@
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>44229.829861111109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44229.304166666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44228.843055555553</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>44228.543749999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>44228.495138888888</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>44228.300694444442</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>44226.551388888889</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>44223.361111111109</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>44222.333333333336</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>44221.95208333333</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>44221.451388888891</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>44221.320833333331</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>44220.554861111108</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>44220.340277777781</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>44219.333333333336</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>44215.814583333333</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>44215.324999999997</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>44214.975694444445</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>44196.413888888892</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>44192.986111111109</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>44192.319444444445</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>44191.451388888891</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>44191.3125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44190.970138888886</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44190.133333333331</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44189.395833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,73 +532,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,73 +655,73 @@
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>44229.829861111109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44229.304166666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44228.843055555553</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>44228.543749999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>44228.495138888888</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>44228.300694444442</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>44226.551388888889</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>44223.361111111109</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>44222.333333333336</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>44221.95208333333</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>44221.451388888891</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>44221.320833333331</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>44220.554861111108</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>44220.340277777781</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>44219.333333333336</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>44215.814583333333</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>44215.324999999997</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>44214.975694444445</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>44196.413888888892</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>44192.986111111109</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>44192.319444444445</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>44191.451388888891</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>44191.3125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44190.970138888886</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44190.133333333331</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44189.395833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,48 +733,57 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
@@ -1525,13 +1548,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1856,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257B3ACA-6D58-40D4-8C71-FD72E029AB30}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D27" sqref="A1:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,98 +1905,98 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
+        <v>44229.829861111109</v>
+      </c>
+      <c r="B2" s="4">
+        <v>138</v>
+      </c>
+      <c r="C2" s="4">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44229.304166666669</v>
+      </c>
+      <c r="B3" s="4">
+        <v>131</v>
+      </c>
+      <c r="C3" s="4">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44228.843055555553</v>
+      </c>
+      <c r="B4" s="4">
+        <v>140</v>
+      </c>
+      <c r="C4" s="4">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>44228.543749999997</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B5" s="1">
         <v>138</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C5" s="1">
         <v>65</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D5" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>44228.495138888888</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B6" s="1">
         <v>132</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C6" s="1">
         <v>68</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D6" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>44228.300694444442</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B7" s="1">
         <v>132</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C7" s="1">
         <v>81</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D7" s="1">
         <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44226.551388888889</v>
-      </c>
-      <c r="B5" s="4">
-        <v>130</v>
-      </c>
-      <c r="C5" s="4">
-        <v>73</v>
-      </c>
-      <c r="D5" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44223.361111111109</v>
-      </c>
-      <c r="B6" s="4">
-        <v>132</v>
-      </c>
-      <c r="C6" s="4">
-        <v>68</v>
-      </c>
-      <c r="D6" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44222.333333333336</v>
-      </c>
-      <c r="B7" s="3">
-        <v>138</v>
-      </c>
-      <c r="C7" s="3">
-        <v>75</v>
-      </c>
-      <c r="D7" s="3">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44221.95208333333</v>
-      </c>
-      <c r="B8" s="3">
-        <v>115</v>
-      </c>
-      <c r="C8" s="3">
-        <v>60</v>
+        <v>44226.551388888889</v>
+      </c>
+      <c r="B8" s="4">
+        <v>130</v>
+      </c>
+      <c r="C8" s="4">
+        <v>73</v>
       </c>
       <c r="D8" s="3">
         <v>98</v>
@@ -1981,55 +2004,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44221.451388888891</v>
-      </c>
-      <c r="B9" s="3">
-        <v>115</v>
-      </c>
-      <c r="C9" s="3">
-        <v>60</v>
+        <v>44223.361111111109</v>
+      </c>
+      <c r="B9" s="4">
+        <v>132</v>
+      </c>
+      <c r="C9" s="4">
+        <v>68</v>
       </c>
       <c r="D9" s="3">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44221.320833333331</v>
+        <v>44222.333333333336</v>
       </c>
       <c r="B10" s="3">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C10" s="3">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44220.554861111108</v>
+        <v>44221.95208333333</v>
       </c>
       <c r="B11" s="3">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44220.340277777781</v>
+        <v>44221.451388888891</v>
       </c>
       <c r="B12" s="3">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3">
         <v>98</v>
@@ -2037,159 +2060,201 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44219.333333333336</v>
+        <v>44221.320833333331</v>
       </c>
       <c r="B13" s="3">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44215.814583333333</v>
+        <v>44220.554861111108</v>
       </c>
       <c r="B14" s="3">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C14" s="3">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44215.324999999997</v>
+        <v>44220.340277777781</v>
       </c>
       <c r="B15" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44214.975694444445</v>
+        <v>44219.333333333336</v>
       </c>
       <c r="B16" s="3">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44196.413888888892</v>
+        <v>44215.814583333333</v>
       </c>
       <c r="B17" s="3">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3">
-        <v>71</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D17" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44192.986111111109</v>
+        <v>44215.324999999997</v>
       </c>
       <c r="B18" s="3">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C18" s="3">
-        <v>67</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D18" s="3">
+        <v>107</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44192.319444444445</v>
+        <v>44214.975694444445</v>
       </c>
       <c r="B19" s="3">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C19" s="3">
-        <v>62</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="D19" s="3">
+        <v>103</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44191.451388888891</v>
+        <v>44196.413888888892</v>
       </c>
       <c r="B20" s="3">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C20" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44191.3125</v>
+        <v>44192.986111111109</v>
       </c>
       <c r="B21" s="3">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44190.970138888886</v>
+        <v>44192.319444444445</v>
       </c>
       <c r="B22" s="3">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C22" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44190.133333333331</v>
+        <v>44191.451388888891</v>
       </c>
       <c r="B23" s="3">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C23" s="3">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <v>44191.3125</v>
+      </c>
+      <c r="B24" s="3">
+        <v>126</v>
+      </c>
+      <c r="C24" s="3">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>44190.970138888886</v>
+      </c>
+      <c r="B25" s="7">
+        <v>120</v>
+      </c>
+      <c r="C25" s="7">
+        <v>61</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>44190.133333333331</v>
+      </c>
+      <c r="B26" s="7">
+        <v>115</v>
+      </c>
+      <c r="C26" s="7">
+        <v>60</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>44189.395833333336</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B27" s="7">
         <v>134</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C27" s="7">
         <v>69</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D27" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D24">
-    <sortCondition descending="1" ref="A5:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D27">
+    <sortCondition descending="1" ref="A2:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
